--- a/Testdata/TC_76.xlsx
+++ b/Testdata/TC_76.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>BxoAAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoGSu0vKtiSMN+BNClFSFEgqsvJSDHdH4lTLXWZ3VhTfUqBFijRFUQROkSZt0acUBeoabQKkdi//Eliy+9Rf6JnLzl5IxaVrCNbOuc2ZM+c6Qm9dz33jikQxDYOHFbtmVQwSuKFHg4uHlYSdV+37lbcc1L12iX+MIzwnDIgN4Ari/euYPqzMGFvsm+ZyuawtG7UwujDrlmWbjwb9sTsjc1ylQcxw4JKK5vJez1VxUNubDwjDHmZYcj6s9Ma9WptQtwOwAQ7wBYlqrSSmAYnjbsAooyTmnBHBjLQ7g3fkwZx67X7NRuYaPKNsJdT3JF2BUsIVHWxLJnROnLpl71at3WrDntj1fXtvf2e3tmfV300ZNSHq45iNSXRFXQEYMzxfCHZrt2HbdXtvZxeZG4lAVmYABw19b0SuaEy8NvH9eCuLmOoCmy6DU29nTAuZOV4l6M1VOIzwYjahzCfbqTEatIx5oHTJhDjoIIyIC/Z7I5WOyHIYKbNOFn3ATmY0YqsOXm0t6yQm0XDBjbQdq4M6YcCaPonYyQLumnjgCoBwWJQQZN6BzJg6NHbhmwYJ8Zxz7Md5pgISnYbRZbzALjmCODa5jGXgh9gDh2M0ZtSNMwFrGHQchQsQCbu3Qt87ALEp9QaMlt0LwMh841YYXpbFF5FI3Ku4YbjVOdby1+BoPAuXw8BfjZNp7EZ0SrxOK6XeiEM8JBV3O4lZOActMhCSsBxkBf8gBMtg1CEunWP/2Aczxk4DpBQAqJmw8Jyydugn80DbswRFp3CiCbnWJ9RrNITrDbjVw6AXlKRsxBU5RuEy9Zx1uDBCDtyMXX0j65gydQdgyifXEeJG+CkPqA8VIn8XOWjRK8YzQthGl5AYxJPhAa85TmvF90RmBkHgmuDfAHXsvb0HVcuGn4ll7Ysf2FmjUTfwxAdUmPtVu86zdkaXItFRMh9OIYavxJkcG3AlEIJT+C0fB5cAPaVsdtRMtd+AQfLMd9Kv4xBE68LHKwHWdsnDUC9w/cQjMgn0gnPhlFw3RX0nHq2B+hDXDsLBarJa8GRg3kHRIec48aE+MUgjF1mGKIFRM74s0+RB6CTy0zt2ePWPofy73rzmQoLkJa7mhnMOMKHqno6RmafnWd4l3eCij4OLBPKotmMZrj2MZ4BJhIOYH0enzZKzbSZC6b3IdO6sXy4ySyRoQuaLMML+AGxCD5JAVEtVDsC4A8xmagVx6xM3ta+ZsWquolKpzq8jExEoT8DTez4Cc1BBxR1eNhk5ogyI+CEHoQd1Hvt0GhU8bCMObiurfqmv8eNtWQnTC4BOE5LL98mKtx/ZQsG5wzp2ihAr1AaVnPFoZ7d+z2rUIXHzNRJHHhHsG13oQRkxesEVidkc2PaNEYmpB18U+/vG22RKKES8sJGKua2583zoICLvJdBLr4QqTdC3CCkSQDq9oAH21wk1JmNwzgiO/FWOUB61H7pAd/vTf918/vTFsy9uP3z86qsf/+fvv37xj1/cPPkJfNz+5a83H/1KHlMSowme+kQoNGnt7lqNHfA0DUIqN0CB9xKXCdjZmSj4eo1U5yoW7W6vfdhviWSigSk7byYSHg19vAqTbDmWhxAbiSs1U0+QJM4kTU5qXcB2CK/yMgx5k3pFitR5/F2M0hYvn3/x8vmf7uRWBivUnXu8nry+7tj2Gp2uO7z5l71dOlrsVK171Xo9R1yiQSOYkKCV03bqeU7DtmACaVi2TuSeduRNRGWUkjTBF2aJT4LaYRKwaKVdIL9OkcLxJxAiGi1DIbdQLvrVz179+XGBSllXQYpSQLkwiaQ3melCiD4aTYzx8GTU7hqT7pj7SYbL0Unh30KsdtfxVHCqIEiw/z2Yi/lUbFSg4asY4blBsDszVhCJuTgsONsmqNzoDUWWtTyMwmQhbyTHkEE3UOpsspFjQ64ROGHPtaSToTaQS11v/vblJgZ1EOVmJwFlesDLw1ABI0E5vIraT//54usPXjx7dvv0lzdf/6ggQe2j5x7wc4im/FK7PaQ8VW9KEHQ6Fsa8tH6Qqy8KyLvG45AGLHbs+6JhVCsErDaXJn6j3hxKnhAs7AXwEgS9jePuNVOB7RwhswgAPRcYqm2YtdYaIHN4Ztd//+a3t599efvJ01cf/PHmwz/cfPTJy+e/e/Xk9zLqbh8/vf35E5Xly4VA6MIbdtkBGmL+cw0ejQav3cY3739sBCEzoOkwEpGRvnn/05wwrqhoTzLJ0M9pRYoqrJHmmTmfkVNF61Dg0yyyAWjzEtbQFKqIhQvqZpu8W+WieNwJxHd6k2oSEyOEfuq7cJIiccb8v/IpFllSjx9YdbuusFIbfoQpjnOmP/TDKTQZKULMVyWSAte3M2S0Yr/D/rDV7GckUolh5ME4ZvEhkX+gtKnkJaUXpys9VWQQwELj5yY+H4nXyNZRWnIujZlqtDxvejz9OZYlhrdifSxQwHgeRbIhCtRj5ThZQDvM1ER6N168y+Qa4CPZq+Zb4mzd6xTxsM5hoRAW0Rwg8CI1KZRMU72Yj7GynT3ipsmWgCu85YA51Huk7LSuoK+MTJ53ulEURhuTT4ZJyQbQSUNGMTOLaxpxp7Lr9rK7SgFpwtMfcuxTJww7xCdsu8c6M+MehFdvzAt3vy1rLx76njLmdqOHNksmIP9iyR3l/32wlM7WjCJorPj7xtYvjOnUOoJhd0tt5FEEIx8BYXf1BHhAo5g94plAfUnImYacyQ71kbMn29BHci0I5Ic6oxJuFrRMI5fJZ+PQ79M53XIqtNLwLgoBUy4WsoPrbecovLIckWvoL3MSICdOfwhVg08820mT/gqpVPPzd5qYXszYtoo9mGLikalVdaekXt3xrN3qHiGNqm3D/9it1y3rHn/kUcIhcVCy3HITM72w7M85zn8BDlJ/rgcaAAA=</t>
+          <t>3xsAAB+LCAAAAAAAAAOlWVtv48YV/iuEnlqgEknJ8trGLAPd7AiVLEOS6zgvxYgcWVNTpEIObestBRKkSFMURbEp0iv6lKJAt4s2AdLdXv5LsPZun/oXeubCq+Rs6QYGovnOZc6cObfhordulq52RYKQ+t7jilkzKhrxbN+h3sXjSsTmVXO38paFejc2cU9wgJeEAbMGUl54cBPSx5UFY6sDXb++vq5dN2p+cKHXDcPU3xkOJvaCLHGVeiHDnk0qiZTzZqmKhTrOckgYdjDDUvJxpT/p1zqE2l3AhtjDFySotaOQeiQMex6jjJKQSwYEM9LpDr8nD2bVa7s1E+kbeMrZjqjrSL4cp8QVH2xLpnRJrLpRN6rGXrW+MzUeHTSMg+ZerblrvBsLJoxogEM2IcEVtQUwYXi5EuLGXn3HeNQwmntI38oEulIHWGjkOmNyRUPidIjrhqU8oqsLbNkMTl3OmQbSM7JK0cNNOArwajGlzCVlxQ/9gNjgqAftfUyuR4Hy33Q1AOp0QQO27uJ1aV2nIQlGK+6NcqIW6voea7kkYKcruFTiwJ0DwWJBRJB+DzEV6tLQht/Ui4hjzbEbZoVyRHTmB5fhCtvkGBJW5zquPdfHDkQWoyGjdpgq2KCgk8BfgUrYve27ziGojbm3UBLdfQ+czDdu+/5lUX2eiEQUiHiAW13iRP8GjiYL/3rkuetJNAvtgM6I023H3FtpiOeeku5EIfOXYEUKIYllkDX8B7lWhFGX2HSJ3RMX3BhaDdCSA1ArYv6cso7vRksv8WcBRWdwoim5SU6YrNEIrtfjXve9vlfQspWWlxj713HkbOLCCRm4FdrJjWxSitxdwFRMbhLEjfBTHlIXWkH2LjJoPiomC0LY1pCQFMSr3iFvLlZ7zfdEeoogCE2Ib0Chbhq7VfirG1PDOBB/sHNCRj3PSfnMerVhZvhiIjqOlqMZ5PCVOJNlAq0AITiF23axdwnoGWWL41Zs/RYKkme+l3+ThiBbVy5eCzjxSxZDfc92I4fIItD35iIouW2K+1462oAGkNe8BpA5jlzoMwyqxEVaAAowaoWXRZ4shE4DN75Ci3fxENq47SxrNtQ/3qpqtr/kgA7d82yC9Cw/L+I26XkXA+xdRFAmEzcV8SSAeIJPA+yF/DxJVSzE0nYmFLtdVmtr8+6QXmBBU7Jc+QF2h+ATehh5ouupag9OHGK2UCtIS5fYGQfHoolU3qjY5jexiQSTJ+DVO5tgGVRw8XiWw0KGKQURP+TQd6BfY5fOglwAbaXBbaXNLQ4lfrySjS6+AJgYoXZ8l6z5GJEuFD5dr4hlxgSxQh0wyZqMd/bqTaNRh7rM10gceUywq/VglmRE63tXJGRLEDvQxiSkDvyi2D3Q3iYzQiGhhY9USpWWzsqhw4C8F8FMvBamtMDePJJngGp5QT3sbjImlFTAOic4cNcZRnnUgW8D392P/nX762cvn39+9/GT119+8J+///LlP356+/RD+HH3l7/efvILeUzJjKZ45hJh0LS9t2c0diDSEghx5+qiszuRzQR2fi76ebJGagIVi06v3zkatCGiMmAszmeFiGfDAK/9KF1O5CHERuJK9TgSJIs1FfrSdY7aJbyJyzTkw+YVyXNn6fcJSl+8evH5qxd/uldaOSztG+b+fpO3C8N8U1sxzQ2+pK3wIV6ObuqJYO5UjWa1Xs8wF3jQGF46MKklfuo7VsM09o16wzBj+wGLA3kbU5GkNE3xhV6Qk1DHjzwWrJMQyK5jogj8KaRIQpapkFmoEP3yx6///CTHpbyrkLwWMM6PAhlNerwQqo/HU20yOh13etq0N+FxktIyfFL5NzCr3ZN8ygWV50XY/Q68b/nrVqvAPFfR/LlGsL3Q1pCJmTzMBds2VG70QJVFK48CP1rJG8kIpOgWzqSabJXYUmsETfhzo+ikpC3s0tbbv32xTUAdRIXZqUeZNR62taWXxKXAUI4ioQxdZe1n/3z51Ucvnz+/e/az269+mNOg9kmeNRDnkE3ZZRL2UPJUvykg6GwinHlpfD/TXxTIh8ITn3ostMxdMQ+qFQJRk2sT/0f9JbQ8oVj4C/ACgt7GYe+GqcS2jpGeB8DOFYZu66eTcwLIGp769d+/+e3dr764+/TZ64/+ePvxH24/+fTVi9+9fvp7mXV3T57d/eSpqvLFRiBs4fO4HAE18byzNZ6NGu/d2tfv/1zzfKbB0KFFoiJ9/f5nGWXcUDGepJphnksMyZuwwZoV5nJaxpTEhpxcIiIHgA5vYY2EQzUxf0XtdJN3q1wVzztB+FZ/Wo1CovkwT30bTpJnToX/VzklIlvqySOjbtYVVVrDjzDDYcb1R64/gyEjJojnU4ElJ/XNAimv2O9oMGq3BimLNGIUOPDaMvgbkP9A/TAeK5OHQooAFYY9O3L5K3eDbZOE4l+Z0qWr1+K85fCSZxmGYVbFX6bN5TjgxR0Ecgjy1IfGSbSCEZipR+b9dPGpJTP0Hsv5NDsGp+t+N0+HdYYKzS9P5oCgi3KkSLI09UP+MpUj7DF3TboEWu7zDLhDfUuU09UVzJKBzmtNLwj8YGvBSSkx2xCmZ6gieurxhEfnW8pJ20nvKgbiIpf84LN6Ugv9LnEJK/2hLZYe+lcPloW7LyvaD0euo5xZ7rmRuCVVkP3ayAOlrDGtIICxiX+cKP15cEC9y36501tkp2k6s9kcqt5sHzf38KPm7m6TQG7N90w+ykul/P3JVfCXC3+7ldsEhsW8ePrIHsOzu6Q26WAhyB+j4CmRkKqwJ2t0SIOQvcNLlPolkfMEOZejs2CRP8T6PF4DXc/upeeMjssLk9+lfXdAl7Tkc9WIa1BeCUTBaiVHy7L3CS3vmNzA4JvRAMV69gNoZ/wpVk6bTCqo8Yl8rGsSzUqr02PhE6DzuHqYdM+Bsezh0uIbL3X/DwPE4PVQFX0vpBcLVvZe6/v7DbJL6tX63LarO7CoQjOeVR083zcNY95wmnX+bU4ph+ZAyXXJTXhLoSE8K8rL6YV/prP+C/mv3vPfGwAA</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,37 +384,42 @@
       <c r="A1" s="2">
         <v>37962.97</v>
       </c>
-      <c r="B1" s="2">
-        <v>29205.22</v>
-      </c>
-      <c r="C1" s="2">
-        <v>22352.63</v>
-      </c>
-      <c r="D1" s="2">
-        <v>16421.36</v>
-      </c>
-      <c r="E1" s="2">
-        <v>10540.67</v>
-      </c>
-      <c r="F1" s="2">
-        <v>8354.02</v>
-      </c>
-      <c r="G1" s="2">
-        <v>7111.74</v>
-      </c>
-      <c r="H1" s="2">
-        <v>6384.48</v>
-      </c>
-      <c r="I1" s="2">
-        <f>NA()</f>
-        <v>0</v>
-      </c>
-      <c r="J1" s="2">
-        <v>3271.34</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>1</EndRow>
+          <EndCol>1</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DD2FBC6-4199-4F95-9651-1F7D3768BF73}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_76.xlsx
+++ b/Testdata/TC_76.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3xsAAB+LCAAAAAAAAAOlWVtv48YV/iuEnlqgEknJ8trGLAPd7AiVLEOS6zgvxYgcWVNTpEIObestBRKkSFMURbEp0iv6lKJAt4s2AdLdXv5LsPZun/oXeubCq+Rs6QYGovnOZc6cObfhordulq52RYKQ+t7jilkzKhrxbN+h3sXjSsTmVXO38paFejc2cU9wgJeEAbMGUl54cBPSx5UFY6sDXb++vq5dN2p+cKHXDcPU3xkOJvaCLHGVeiHDnk0qiZTzZqmKhTrOckgYdjDDUvJxpT/p1zqE2l3AhtjDFySotaOQeiQMex6jjJKQSwYEM9LpDr8nD2bVa7s1E+kbeMrZjqjrSL4cp8QVH2xLpnRJrLpRN6rGXrW+MzUeHTSMg+ZerblrvBsLJoxogEM2IcEVtQUwYXi5EuLGXn3HeNQwmntI38oEulIHWGjkOmNyRUPidIjrhqU8oqsLbNkMTl3OmQbSM7JK0cNNOArwajGlzCVlxQ/9gNjgqAftfUyuR4Hy33Q1AOp0QQO27uJ1aV2nIQlGK+6NcqIW6voea7kkYKcruFTiwJ0DwWJBRJB+DzEV6tLQht/Ui4hjzbEbZoVyRHTmB5fhCtvkGBJW5zquPdfHDkQWoyGjdpgq2KCgk8BfgUrYve27ziGojbm3UBLdfQ+czDdu+/5lUX2eiEQUiHiAW13iRP8GjiYL/3rkuetJNAvtgM6I023H3FtpiOeeku5EIfOXYEUKIYllkDX8B7lWhFGX2HSJ3RMX3BhaDdCSA1ArYv6cso7vRksv8WcBRWdwoim5SU6YrNEIrtfjXve9vlfQspWWlxj713HkbOLCCRm4FdrJjWxSitxdwFRMbhLEjfBTHlIXWkH2LjJoPiomC0LY1pCQFMSr3iFvLlZ7zfdEeoogCE2Ib0Chbhq7VfirG1PDOBB/sHNCRj3PSfnMerVhZvhiIjqOlqMZ5PCVOJNlAq0AITiF23axdwnoGWWL41Zs/RYKkme+l3+ThiBbVy5eCzjxSxZDfc92I4fIItD35iIouW2K+1462oAGkNe8BpA5jlzoMwyqxEVaAAowaoWXRZ4shE4DN75Ci3fxENq47SxrNtQ/3qpqtr/kgA7d82yC9Cw/L+I26XkXA+xdRFAmEzcV8SSAeIJPA+yF/DxJVSzE0nYmFLtdVmtr8+6QXmBBU7Jc+QF2h+ATehh5ouupag9OHGK2UCtIS5fYGQfHoolU3qjY5jexiQSTJ+DVO5tgGVRw8XiWw0KGKQURP+TQd6BfY5fOglwAbaXBbaXNLQ4lfrySjS6+AJgYoXZ8l6z5GJEuFD5dr4hlxgSxQh0wyZqMd/bqTaNRh7rM10gceUywq/VglmRE63tXJGRLEDvQxiSkDvyi2D3Q3iYzQiGhhY9USpWWzsqhw4C8F8FMvBamtMDePJJngGp5QT3sbjImlFTAOic4cNcZRnnUgW8D392P/nX762cvn39+9/GT119+8J+///LlP356+/RD+HH3l7/efvILeUzJjKZ45hJh0LS9t2c0diDSEghx5+qiszuRzQR2fi76ebJGagIVi06v3zkatCGiMmAszmeFiGfDAK/9KF1O5CHERuJK9TgSJIs1FfrSdY7aJbyJyzTkw+YVyXNn6fcJSl+8evH5qxd/uldaOSztG+b+fpO3C8N8U1sxzQ2+pK3wIV6ObuqJYO5UjWa1Xs8wF3jQGF46MKklfuo7VsM09o16wzBj+wGLA3kbU5GkNE3xhV6Qk1DHjzwWrJMQyK5jogj8KaRIQpapkFmoEP3yx6///CTHpbyrkLwWMM6PAhlNerwQqo/HU20yOh13etq0N+FxktIyfFL5NzCr3ZN8ygWV50XY/Q68b/nrVqvAPFfR/LlGsL3Q1pCJmTzMBds2VG70QJVFK48CP1rJG8kIpOgWzqSabJXYUmsETfhzo+ikpC3s0tbbv32xTUAdRIXZqUeZNR62taWXxKXAUI4ioQxdZe1n/3z51Ucvnz+/e/az269+mNOg9kmeNRDnkE3ZZRL2UPJUvykg6GwinHlpfD/TXxTIh8ITn3ostMxdMQ+qFQJRk2sT/0f9JbQ8oVj4C/ACgt7GYe+GqcS2jpGeB8DOFYZu66eTcwLIGp769d+/+e3dr764+/TZ64/+ePvxH24/+fTVi9+9fvp7mXV3T57d/eSpqvLFRiBs4fO4HAE18byzNZ6NGu/d2tfv/1zzfKbB0KFFoiJ9/f5nGWXcUDGepJphnksMyZuwwZoV5nJaxpTEhpxcIiIHgA5vYY2EQzUxf0XtdJN3q1wVzztB+FZ/Wo1CovkwT30bTpJnToX/VzklIlvqySOjbtYVVVrDjzDDYcb1R64/gyEjJojnU4ElJ/XNAimv2O9oMGq3BimLNGIUOPDaMvgbkP9A/TAeK5OHQooAFYY9O3L5K3eDbZOE4l+Z0qWr1+K85fCSZxmGYVbFX6bN5TjgxR0Ecgjy1IfGSbSCEZipR+b9dPGpJTP0Hsv5NDsGp+t+N0+HdYYKzS9P5oCgi3KkSLI09UP+MpUj7DF3TboEWu7zDLhDfUuU09UVzJKBzmtNLwj8YGvBSSkx2xCmZ6gieurxhEfnW8pJ20nvKgbiIpf84LN6Ugv9LnEJK/2hLZYe+lcPloW7LyvaD0euo5xZ7rmRuCVVkP3ayAOlrDGtIICxiX+cKP15cEC9y36501tkp2k6s9kcqt5sHzf38KPm7m6TQG7N90w+ykul/P3JVfCXC3+7ldsEhsW8ePrIHsOzu6Q26WAhyB+j4CmRkKqwJ2t0SIOQvcNLlPolkfMEOZejs2CRP8T6PF4DXc/upeeMjssLk9+lfXdAl7Tkc9WIa1BeCUTBaiVHy7L3CS3vmNzA4JvRAMV69gNoZ/wpVk6bTCqo8Yl8rGsSzUqr02PhE6DzuHqYdM+Bsezh0uIbL3X/DwPE4PVQFX0vpBcLVvZe6/v7DbJL6tX63LarO7CoQjOeVR083zcNY95wmnX+bU4ph+ZAyXXJTXhLoSE8K8rL6YV/prP+C/mv3vPfGwAA</t>
+          <t>BxoAAB+LCAAAAAAAAAOlGdtuG8f1VxZ8aoGSu0vKtiSMN+BNClFSFEgqsvJSDHdH4lTLXWZ3VhTfUqBFijRFUQROkSZt0acUBeoabQKkdi//Eliy+9Rf6JnLzl5IxaVrCNbOuc2ZM+c6Qm9dz33jikQxDYOHFbtmVQwSuKFHg4uHlYSdV+37lbcc1L12iX+MIzwnDIgN4Ari/euYPqzMGFvsm+ZyuawtG7UwujDrlmWbjwb9sTsjc1ylQcxw4JKK5vJez1VxUNubDwjDHmZYcj6s9Ma9WptQtwOwAQ7wBYlqrSSmAYnjbsAooyTmnBHBjLQ7g3fkwZx67X7NRuYaPKNsJdT3JF2BUsIVHWxLJnROnLpl71at3WrDntj1fXtvf2e3tmfV300ZNSHq45iNSXRFXQEYMzxfCHZrt2HbdXtvZxeZG4lAVmYABw19b0SuaEy8NvH9eCuLmOoCmy6DU29nTAuZOV4l6M1VOIzwYjahzCfbqTEatIx5oHTJhDjoIIyIC/Z7I5WOyHIYKbNOFn3ATmY0YqsOXm0t6yQm0XDBjbQdq4M6YcCaPonYyQLumnjgCoBwWJQQZN6BzJg6NHbhmwYJ8Zxz7Md5pgISnYbRZbzALjmCODa5jGXgh9gDh2M0ZtSNMwFrGHQchQsQCbu3Qt87ALEp9QaMlt0LwMh841YYXpbFF5FI3Ku4YbjVOdby1+BoPAuXw8BfjZNp7EZ0SrxOK6XeiEM8JBV3O4lZOActMhCSsBxkBf8gBMtg1CEunWP/2Aczxk4DpBQAqJmw8Jyydugn80DbswRFp3CiCbnWJ9RrNITrDbjVw6AXlKRsxBU5RuEy9Zx1uDBCDtyMXX0j65gydQdgyifXEeJG+CkPqA8VIn8XOWjRK8YzQthGl5AYxJPhAa85TmvF90RmBkHgmuDfAHXsvb0HVcuGn4ll7Ysf2FmjUTfwxAdUmPtVu86zdkaXItFRMh9OIYavxJkcG3AlEIJT+C0fB5cAPaVsdtRMtd+AQfLMd9Kv4xBE68LHKwHWdsnDUC9w/cQjMgn0gnPhlFw3RX0nHq2B+hDXDsLBarJa8GRg3kHRIec48aE+MUgjF1mGKIFRM74s0+RB6CTy0zt2ePWPofy73rzmQoLkJa7mhnMOMKHqno6RmafnWd4l3eCij4OLBPKotmMZrj2MZ4BJhIOYH0enzZKzbSZC6b3IdO6sXy4ySyRoQuaLMML+AGxCD5JAVEtVDsC4A8xmagVx6xM3ta+ZsWquolKpzq8jExEoT8DTez4Cc1BBxR1eNhk5ogyI+CEHoQd1Hvt0GhU8bCMObiurfqmv8eNtWQnTC4BOE5LL98mKtx/ZQsG5wzp2ihAr1AaVnPFoZ7d+z2rUIXHzNRJHHhHsG13oQRkxesEVidkc2PaNEYmpB18U+/vG22RKKES8sJGKua2583zoICLvJdBLr4QqTdC3CCkSQDq9oAH21wk1JmNwzgiO/FWOUB61H7pAd/vTf918/vTFsy9uP3z86qsf/+fvv37xj1/cPPkJfNz+5a83H/1KHlMSowme+kQoNGnt7lqNHfA0DUIqN0CB9xKXCdjZmSj4eo1U5yoW7W6vfdhviWSigSk7byYSHg19vAqTbDmWhxAbiSs1U0+QJM4kTU5qXcB2CK/yMgx5k3pFitR5/F2M0hYvn3/x8vmf7uRWBivUnXu8nry+7tj2Gp2uO7z5l71dOlrsVK171Xo9R1yiQSOYkKCV03bqeU7DtmACaVi2TuSeduRNRGWUkjTBF2aJT4LaYRKwaKVdIL9OkcLxJxAiGi1DIbdQLvrVz179+XGBSllXQYpSQLkwiaQ3melCiD4aTYzx8GTU7hqT7pj7SYbL0Unh30KsdtfxVHCqIEiw/z2Yi/lUbFSg4asY4blBsDszVhCJuTgsONsmqNzoDUWWtTyMwmQhbyTHkEE3UOpsspFjQ64ROGHPtaSToTaQS11v/vblJgZ1EOVmJwFlesDLw1ABI0E5vIraT//54usPXjx7dvv0lzdf/6ggQe2j5x7wc4im/FK7PaQ8VW9KEHQ6Fsa8tH6Qqy8KyLvG45AGLHbs+6JhVCsErDaXJn6j3hxKnhAs7AXwEgS9jePuNVOB7RwhswgAPRcYqm2YtdYaIHN4Ztd//+a3t599efvJ01cf/PHmwz/cfPTJy+e/e/Xk9zLqbh8/vf35E5Xly4VA6MIbdtkBGmL+cw0ejQav3cY3739sBCEzoOkwEpGRvnn/05wwrqhoTzLJ0M9pRYoqrJHmmTmfkVNF61Dg0yyyAWjzEtbQFKqIhQvqZpu8W+WieNwJxHd6k2oSEyOEfuq7cJIiccb8v/IpFllSjx9YdbuusFIbfoQpjnOmP/TDKTQZKULMVyWSAte3M2S0Yr/D/rDV7GckUolh5ME4ZvEhkX+gtKnkJaUXpys9VWQQwELj5yY+H4nXyNZRWnIujZlqtDxvejz9OZYlhrdifSxQwHgeRbIhCtRj5ThZQDvM1ER6N168y+Qa4CPZq+Zb4mzd6xTxsM5hoRAW0Rwg8CI1KZRMU72Yj7GynT3ipsmWgCu85YA51Huk7LSuoK+MTJ53ulEURhuTT4ZJyQbQSUNGMTOLaxpxp7Lr9rK7SgFpwtMfcuxTJww7xCdsu8c6M+MehFdvzAt3vy1rLx76njLmdqOHNksmIP9iyR3l/32wlM7WjCJorPj7xtYvjOnUOoJhd0tt5FEEIx8BYXf1BHhAo5g94plAfUnImYacyQ71kbMn29BHci0I5Ic6oxJuFrRMI5fJZ+PQ79M53XIqtNLwLgoBUy4WsoPrbecovLIckWvoL3MSICdOfwhVg08820mT/gqpVPPzd5qYXszYtoo9mGLikalVdaekXt3xrN3qHiGNqm3D/9it1y3rHn/kUcIhcVCy3HITM72w7M85zn8BDlJ/rgcaAAA=</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -384,42 +384,37 @@
       <c r="A1" s="2">
         <v>37962.97</v>
       </c>
+      <c r="B1" s="2">
+        <v>29205.22</v>
+      </c>
+      <c r="C1" s="2">
+        <v>22352.63</v>
+      </c>
+      <c r="D1" s="2">
+        <v>16421.36</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10540.67</v>
+      </c>
+      <c r="F1" s="2">
+        <v>8354.02</v>
+      </c>
+      <c r="G1" s="2">
+        <v>7111.74</v>
+      </c>
+      <c r="H1" s="2">
+        <v>6384.48</v>
+      </c>
+      <c r="I1" s="2">
+        <f>NA()</f>
+        <v>0</v>
+      </c>
+      <c r="J1" s="2">
+        <v>3271.34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>1</EndRow>
-          <EndCol>1</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DD2FBC6-4199-4F95-9651-1F7D3768BF73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>